--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Functionality</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>3 hrs</t>
+  </si>
+  <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
+    <t>Added svgs/Minor Adjustments/Adjust Reponsivess</t>
+  </si>
+  <si>
+    <t>Polish UI</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +455,25 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Functionality</t>
   </si>
@@ -45,10 +45,16 @@
     <t>2 hrs</t>
   </si>
   <si>
-    <t>Added svgs/Minor Adjustments/Adjust Reponsivess</t>
-  </si>
-  <si>
     <t>Polish UI</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>Added svgs/Minor Adjustments/Adjust Reponsiveness</t>
+  </si>
+  <si>
+    <t>&lt;7 hrs</t>
   </si>
 </sst>
 </file>
@@ -399,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
@@ -457,7 +463,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>0.125</v>
@@ -471,7 +477,21 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
